--- a/Datos/Database by set/Set with text box/Xlsx sets/Coldsnap Promos (PCSP).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Coldsnap Promos (PCSP).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,70 +444,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Allosaurus Rider</t>
+          <t>('Allosaurus Rider', ['{5}{G}{G}', 'Creature — Elf Warrior', 'You may exile two green cards from your hand rather than pay this spell’s mana cost.', 'Allosaurus Rider’s power and toughness are each equal to 1 plus the number of lands you control.', '1+*/1+*'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{5}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Creature — Elf Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>You may exile two green cards from your hand rather than pay this spell’s mana cost.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Allosaurus Rider’s power and toughness are each equal to 1 plus the number of lands you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1+*/1+*</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Marit Lage</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Token Legendary Creature — Avatar</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Flying, indestructible</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>20/20</t>
+          <t>('Marit Lage', ['Token Legendary Creature — Avatar', 'Flying, indestructible', '20/20'])</t>
         </is>
       </c>
     </row>
